--- a/Spine_Projects/01_input_data/01_input_raw/egasoline/Model_Data_Base_egasoline.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/egasoline/Model_Data_Base_egasoline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/egasoline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/egasoline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8948095C-1F21-488E-AC99-FC8673C72310}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3781EBF-08F3-42C9-99E8-B8BA55CA8B10}"/>
   <bookViews>
-    <workbookView xWindow="-22815" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="2590" yWindow="700" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="116">
   <si>
     <t>Unit</t>
   </si>
@@ -274,6 +274,156 @@
   </si>
   <si>
     <t>35Y</t>
+  </si>
+  <si>
+    <t>Electrolyzer</t>
+  </si>
+  <si>
+    <t>PEM_Electrolyzer</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Hydrogen_Kasso</t>
+  </si>
+  <si>
+    <t>Waste_Heat</t>
+  </si>
+  <si>
+    <t>25Y</t>
+  </si>
+  <si>
+    <t>Destilation_Tower</t>
+  </si>
+  <si>
+    <t>Destilation_tower</t>
+  </si>
+  <si>
+    <t>Raw_Methanol</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>E-Methanol_Kasso</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>30Y</t>
+  </si>
+  <si>
+    <t>Steam_Plant</t>
+  </si>
+  <si>
+    <t>Electric_Steam_Boiler</t>
+  </si>
+  <si>
+    <t>20Y</t>
+  </si>
+  <si>
+    <t>RWGS</t>
+  </si>
+  <si>
+    <t>RWGS_unit</t>
+  </si>
+  <si>
+    <t>Carbon_Dioxide</t>
+  </si>
+  <si>
+    <t>Carbon_Monoxide</t>
+  </si>
+  <si>
+    <t>CO2_Vaporizer</t>
+  </si>
+  <si>
+    <t>Vaporized_Carbon_Dioxide</t>
+  </si>
+  <si>
+    <t>Fuel_Synthezyser</t>
+  </si>
+  <si>
+    <t>Fischer_Tropsch_unit</t>
+  </si>
+  <si>
+    <t>power_line_Wholesale_Kasso</t>
+  </si>
+  <si>
+    <t>Power_line</t>
+  </si>
+  <si>
+    <t>Power_Wholesale</t>
+  </si>
+  <si>
+    <t>connection_type_lossless_bidirectional</t>
+  </si>
+  <si>
+    <t>40Y</t>
+  </si>
+  <si>
+    <t>pipeline_storage_hydrogen</t>
+  </si>
+  <si>
+    <t>Hydrogen_pipeline</t>
+  </si>
+  <si>
+    <t>Hydrogen_storage_Kasso</t>
+  </si>
+  <si>
+    <t>connection_type_normal</t>
+  </si>
+  <si>
+    <t>50Y</t>
+  </si>
+  <si>
+    <t>pipeline_storage_jetfuel</t>
+  </si>
+  <si>
+    <t>JetFuel_Kasso</t>
+  </si>
+  <si>
+    <t>JetFuel_storage_Kasso</t>
+  </si>
+  <si>
+    <t>pipeline_District_Heating</t>
+  </si>
+  <si>
+    <t>Heat_pipeline</t>
+  </si>
+  <si>
+    <t>District_Heating</t>
+  </si>
+  <si>
+    <t>Hydrogen_storage</t>
+  </si>
+  <si>
+    <t>fix_node_state</t>
+  </si>
+  <si>
+    <t>Gasoline_storage</t>
+  </si>
+  <si>
+    <t>Gasoline_storage_Kasso</t>
+  </si>
+  <si>
+    <t>eGasoline</t>
+  </si>
+  <si>
+    <t>Gasoline_pipeline</t>
+  </si>
+  <si>
+    <t>Gasoline_Kasso</t>
+  </si>
+  <si>
+    <t>AEC_Electrolyzer</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>SOEC_Electrolyzer</t>
   </si>
 </sst>
 </file>
@@ -313,15 +463,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -329,11 +485,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -341,11 +508,58 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -398,8 +612,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AQ6" totalsRowShown="0">
-  <autoFilter ref="A1:AQ6" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AQ8" totalsRowShown="0">
+  <autoFilter ref="A1:AQ8" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
   <tableColumns count="43">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Object_type"/>
@@ -428,9 +642,7 @@
     <tableColumn id="10" xr3:uid="{ACDE4024-BCA2-4145-B3BC-1A5A08F3EA7D}" name="Relation_In_In"/>
     <tableColumn id="11" xr3:uid="{8AEC88A1-B64A-43A2-AC89-3B27AB4ACAD7}" name="Relation_In_Out"/>
     <tableColumn id="25" xr3:uid="{95F69D80-80E7-42BD-B42F-59F3C3DC485B}" name="Relation_Out_Out"/>
-    <tableColumn id="12" xr3:uid="{F1A83AF0-CF23-4B00-9076-4E28DF8DAFD3}" name="Cost_invest" dataDxfId="2">
-      <calculatedColumnFormula>[1]!Table1[[#This Row],[Cap_Output1_existing]]*0.56</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="12" xr3:uid="{F1A83AF0-CF23-4B00-9076-4E28DF8DAFD3}" name="Cost_invest" dataDxfId="6"/>
     <tableColumn id="24" xr3:uid="{4D171E04-3F62-4131-BD43-B8A8D03B8530}" name="units_on_cost"/>
     <tableColumn id="13" xr3:uid="{AD4231E3-CB94-4597-81A2-E13C044BBD2D}" name="fom_cost"/>
     <tableColumn id="21" xr3:uid="{400CD12D-8ADA-4557-B7CA-1464809EAFF0}" name="vom_cost"/>
@@ -440,12 +652,12 @@
     <tableColumn id="35" xr3:uid="{EF2A3F17-0D1A-480E-A13D-A5808719A3ED}" name="vom_cost_Output2"/>
     <tableColumn id="36" xr3:uid="{CFFB3FD3-3581-4635-8E26-A397976C50BA}" name="minimum_op_point"/>
     <tableColumn id="37" xr3:uid="{FF4178F5-A47B-4920-A52E-1B3F85F074B2}" name="unit_idle_heat_rate"/>
-    <tableColumn id="38" xr3:uid="{025B798B-AEA0-4557-A1C1-691EF0E57AB5}" name="resolution_output"/>
-    <tableColumn id="39" xr3:uid="{35A52A69-E8FB-4298-8F4F-F2BB77F81158}" name="demand"/>
+    <tableColumn id="38" xr3:uid="{025B798B-AEA0-4557-A1C1-691EF0E57AB5}" name="resolution_output" dataDxfId="3"/>
+    <tableColumn id="39" xr3:uid="{35A52A69-E8FB-4298-8F4F-F2BB77F81158}" name="demand" dataDxfId="2"/>
     <tableColumn id="40" xr3:uid="{13D3F1BD-DB2E-4B88-B660-2F6A81616F69}" name="unit_investment_variable_type"/>
     <tableColumn id="41" xr3:uid="{8CF0CBE3-C92A-4542-8737-317CCD5CF213}" name="unit_investment_tech_lifetime"/>
-    <tableColumn id="42" xr3:uid="{363D0C55-B2E1-44C7-87B7-7505E7326FF0}" name="number_of_units"/>
-    <tableColumn id="43" xr3:uid="{D9CDEEFF-E080-4B8B-8CB3-8D91FD4E3834}" name="Error messages:"/>
+    <tableColumn id="42" xr3:uid="{363D0C55-B2E1-44C7-87B7-7505E7326FF0}" name="number_of_units" dataDxfId="1"/>
+    <tableColumn id="43" xr3:uid="{D9CDEEFF-E080-4B8B-8CB3-8D91FD4E3834}" name="Error messages:" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -460,7 +672,7 @@
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input1"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Input2"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output1"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Output2" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Output2" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Connection_type"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_existing"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input1_max"/>
@@ -492,7 +704,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:N5" totalsRowShown="0">
   <autoFilter ref="A1:N5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="Object_type"/>
     <tableColumn id="6" xr3:uid="{FA5F8582-61FC-4A96-9E8D-E08E92F1962D}" name="value_before"/>
     <tableColumn id="5" xr3:uid="{58DBFD58-A0D2-4B31-B639-19B1628ABAC8}" name="value_start"/>
@@ -512,8 +724,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F60E0718-CF3D-46DE-ABAE-954431E3B623}" name="Table4" displayName="Table4" ref="A1:A15" totalsRowShown="0">
-  <autoFilter ref="A1:A15" xr:uid="{F60E0718-CF3D-46DE-ABAE-954431E3B623}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F60E0718-CF3D-46DE-ABAE-954431E3B623}" name="Table4" displayName="Table4" ref="A1:A18" totalsRowShown="0">
+  <autoFilter ref="A1:A18" xr:uid="{F60E0718-CF3D-46DE-ABAE-954431E3B623}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{92FD8766-2E9E-48CC-B065-131067C79BF9}" name="object_type"/>
   </tableColumns>
@@ -818,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -993,6 +1205,10 @@
       <c r="L2">
         <v>304</v>
       </c>
+      <c r="Z2">
+        <f t="shared" ref="Z2:Z6" si="0">1/0.795</f>
+        <v>1.2578616352201257</v>
+      </c>
       <c r="AB2" t="e">
         <f>[1]!Table1[[#This Row],[Cap_Output1_existing]]*0.56</f>
         <v>#REF!</v>
@@ -1014,33 +1230,254 @@
       <c r="AQ2" s="4"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="AB3" t="e">
-        <f>[1]!Table1[[#This Row],[Cap_Output1_existing]]*0.56</f>
-        <v>#REF!</v>
-      </c>
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3">
+        <v>52</v>
+      </c>
+      <c r="H3">
+        <v>52</v>
+      </c>
+      <c r="O3">
+        <v>0.75</v>
+      </c>
+      <c r="Y3">
+        <v>5.8500000000000002E-3</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>1.2578616352201257</v>
+      </c>
+      <c r="AA3">
+        <v>1.76</v>
+      </c>
+      <c r="AD3">
+        <v>4.34</v>
+      </c>
+      <c r="AG3">
+        <v>1.4865951742627345E-3</v>
+      </c>
+      <c r="AJ3">
+        <v>0.02</v>
+      </c>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="4"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="AB4" t="e">
-        <f>[1]!Table1[[#This Row],[Cap_Output1_existing]]*0.56</f>
-        <v>#REF!</v>
-      </c>
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4">
+        <v>52</v>
+      </c>
+      <c r="K4">
+        <v>52</v>
+      </c>
+      <c r="Y4">
+        <v>17.277901743828668</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>1.2578616352201257</v>
+      </c>
+      <c r="AK4">
+        <v>0.1</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>20.192799999999998</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="4"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="AB5" t="e">
-        <f>[1]!Table1[[#This Row],[Cap_Output1_existing]]*0.56</f>
-        <v>#REF!</v>
-      </c>
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="Y5">
+        <v>7.2437800000000002E-4</v>
+      </c>
+      <c r="Z5">
+        <v>0.99</v>
+      </c>
+      <c r="AD5">
+        <v>0.11929223744292237</v>
+      </c>
+      <c r="AG5">
+        <v>1.4865951742627345E-3</v>
+      </c>
+      <c r="AK5">
+        <v>0.1</v>
+      </c>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="4"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>1.2578616352201257</v>
+      </c>
       <c r="AB6" t="e">
         <f>[1]!Table1[[#This Row],[Cap_Output1_existing]]*0.56</f>
         <v>#REF!</v>
       </c>
     </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="Y7">
+        <v>3.6010731197896975E-3</v>
+      </c>
+      <c r="Z7">
+        <v>3.601073119789697E-3</v>
+      </c>
+      <c r="AF7">
+        <v>26.81</v>
+      </c>
+      <c r="AK7">
+        <v>0.1</v>
+      </c>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="4"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2" xr:uid="{ED867B80-C728-4873-8D4D-BAB1E8AB7F30}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL5 AL7" xr:uid="{BF130281-5586-4A5C-8D6C-8E80EEF73792}">
       <formula1>"h, D, W, M, Q, Y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1055,7 +1492,7 @@
           <x14:formula1>
             <xm:f>DropDown!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
+          <xm:sqref>B1 B9:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1065,9 +1502,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1178,6 +1617,206 @@
         <v>49</v>
       </c>
     </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>1000</v>
+      </c>
+      <c r="K2">
+        <v>1000</v>
+      </c>
+      <c r="L2">
+        <v>1000</v>
+      </c>
+      <c r="M2">
+        <v>1000</v>
+      </c>
+      <c r="N2">
+        <v>1000</v>
+      </c>
+      <c r="O2">
+        <v>1000</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
+      <c r="J3">
+        <v>1000</v>
+      </c>
+      <c r="K3">
+        <v>1000</v>
+      </c>
+      <c r="L3">
+        <v>1000</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+      <c r="N3">
+        <v>1000</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0.88</v>
+      </c>
+      <c r="V3">
+        <v>7.2835616438356163E-2</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="J4">
+        <v>1000</v>
+      </c>
+      <c r="K4">
+        <v>1000</v>
+      </c>
+      <c r="L4">
+        <v>1000</v>
+      </c>
+      <c r="M4">
+        <v>1000</v>
+      </c>
+      <c r="N4">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+      <c r="L5">
+        <v>1000</v>
+      </c>
+      <c r="M5">
+        <v>1000</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1189,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1253,10 +1892,65 @@
         <v>47</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>5478.6764505058327</v>
+      </c>
+      <c r="G2">
+        <v>4.147E-2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5" xr:uid="{5D5BF415-E056-4F96-A602-1B73CD7FB1B5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5 E2:E3" xr:uid="{5D5BF415-E056-4F96-A602-1B73CD7FB1B5}">
       <formula1>"true, false"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1269,10 +1963,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F682EA3-CCEB-45E2-AC25-979810840C6C}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1287,6 +1981,86 @@
         <v>61</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Spine_Projects/01_input_data/01_input_raw/egasoline/Model_Data_Base_egasoline.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/egasoline/Model_Data_Base_egasoline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/egasoline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/egasoline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3781EBF-08F3-42C9-99E8-B8BA55CA8B10}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2592EB2B-EF80-4362-A692-3AD1CC5F48ED}"/>
   <bookViews>
-    <workbookView xWindow="2590" yWindow="700" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-20940" yWindow="-20055" windowWidth="22710" windowHeight="17580" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="Storages" sheetId="3" r:id="rId3"/>
     <sheet name="DropDown" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="CIQWBGuid" hidden="1">"1040cf63-564d-477e-9b2b-75e28e82ca23"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
@@ -76,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="104">
   <si>
     <t>Unit</t>
   </si>
@@ -123,9 +120,6 @@
     <t>Cap_Output2_max</t>
   </si>
   <si>
-    <t>Cap_Output_1_max</t>
-  </si>
-  <si>
     <t>Connection</t>
   </si>
   <si>
@@ -213,15 +207,6 @@
     <t>Object_type</t>
   </si>
   <si>
-    <t>storage_investment_tech_lifetime</t>
-  </si>
-  <si>
-    <t>number_of_storages</t>
-  </si>
-  <si>
-    <t>storage_investment_cost</t>
-  </si>
-  <si>
     <t>connection_investment_tech_lifetime</t>
   </si>
   <si>
@@ -234,168 +219,60 @@
     <t>units_on_cost</t>
   </si>
   <si>
-    <t>minimum_op_point</t>
-  </si>
-  <si>
-    <t>unit_idle_heat_rate</t>
-  </si>
-  <si>
     <t>resolution_output</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
-    <t>unit_investment_variable_type</t>
-  </si>
-  <si>
-    <t>unit_investment_tech_lifetime</t>
-  </si>
-  <si>
-    <t>number_of_units</t>
-  </si>
-  <si>
-    <t>Error messages:</t>
-  </si>
-  <si>
     <t>object_type</t>
   </si>
   <si>
     <t>PV_plant</t>
   </si>
   <si>
-    <t>Solar_Plant_Kasso</t>
-  </si>
-  <si>
-    <t>Power_Kasso</t>
-  </si>
-  <si>
-    <t>unit_investment_variable_type_continuous</t>
-  </si>
-  <si>
-    <t>35Y</t>
-  </si>
-  <si>
-    <t>Electrolyzer</t>
-  </si>
-  <si>
     <t>PEM_Electrolyzer</t>
   </si>
   <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Hydrogen_Kasso</t>
-  </si>
-  <si>
-    <t>Waste_Heat</t>
-  </si>
-  <si>
-    <t>25Y</t>
-  </si>
-  <si>
-    <t>Destilation_Tower</t>
-  </si>
-  <si>
-    <t>Destilation_tower</t>
-  </si>
-  <si>
-    <t>Raw_Methanol</t>
-  </si>
-  <si>
-    <t>Steam</t>
-  </si>
-  <si>
-    <t>E-Methanol_Kasso</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>30Y</t>
-  </si>
-  <si>
     <t>Steam_Plant</t>
   </si>
   <si>
     <t>Electric_Steam_Boiler</t>
   </si>
   <si>
-    <t>20Y</t>
-  </si>
-  <si>
-    <t>RWGS</t>
-  </si>
-  <si>
     <t>RWGS_unit</t>
   </si>
   <si>
-    <t>Carbon_Dioxide</t>
-  </si>
-  <si>
-    <t>Carbon_Monoxide</t>
-  </si>
-  <si>
     <t>CO2_Vaporizer</t>
   </si>
   <si>
-    <t>Vaporized_Carbon_Dioxide</t>
-  </si>
-  <si>
-    <t>Fuel_Synthezyser</t>
-  </si>
-  <si>
     <t>Fischer_Tropsch_unit</t>
   </si>
   <si>
-    <t>power_line_Wholesale_Kasso</t>
-  </si>
-  <si>
     <t>Power_line</t>
   </si>
   <si>
-    <t>Power_Wholesale</t>
-  </si>
-  <si>
     <t>connection_type_lossless_bidirectional</t>
   </si>
   <si>
     <t>40Y</t>
   </si>
   <si>
-    <t>pipeline_storage_hydrogen</t>
-  </si>
-  <si>
     <t>Hydrogen_pipeline</t>
   </si>
   <si>
-    <t>Hydrogen_storage_Kasso</t>
-  </si>
-  <si>
     <t>connection_type_normal</t>
   </si>
   <si>
     <t>50Y</t>
   </si>
   <si>
-    <t>pipeline_storage_jetfuel</t>
-  </si>
-  <si>
-    <t>JetFuel_Kasso</t>
-  </si>
-  <si>
-    <t>JetFuel_storage_Kasso</t>
-  </si>
-  <si>
-    <t>pipeline_District_Heating</t>
-  </si>
-  <si>
     <t>Heat_pipeline</t>
   </si>
   <si>
-    <t>District_Heating</t>
-  </si>
-  <si>
     <t>Hydrogen_storage</t>
   </si>
   <si>
@@ -405,18 +282,9 @@
     <t>Gasoline_storage</t>
   </si>
   <si>
-    <t>Gasoline_storage_Kasso</t>
-  </si>
-  <si>
-    <t>eGasoline</t>
-  </si>
-  <si>
     <t>Gasoline_pipeline</t>
   </si>
   <si>
-    <t>Gasoline_Kasso</t>
-  </si>
-  <si>
     <t>AEC_Electrolyzer</t>
   </si>
   <si>
@@ -424,13 +292,106 @@
   </si>
   <si>
     <t>SOEC_Electrolyzer</t>
+  </si>
+  <si>
+    <t>solar_plant</t>
+  </si>
+  <si>
+    <t>electrolyzer</t>
+  </si>
+  <si>
+    <t>dist_tower</t>
+  </si>
+  <si>
+    <t>Distillation_tower</t>
+  </si>
+  <si>
+    <t>rwgs</t>
+  </si>
+  <si>
+    <t>co2_vaporizer</t>
+  </si>
+  <si>
+    <t>fuel_synthesizer</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>steam</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>vaporized_co2</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>egasoline</t>
+  </si>
+  <si>
+    <t>minimum_op_point_Input1</t>
+  </si>
+  <si>
+    <t>minimum_op_point_Input2</t>
+  </si>
+  <si>
+    <t>minimum_op_point_Output1</t>
+  </si>
+  <si>
+    <t>minimum_op_point_Output2</t>
+  </si>
+  <si>
+    <t>pl_wholesale</t>
+  </si>
+  <si>
+    <t>pl_h2_st</t>
+  </si>
+  <si>
+    <t>pl_dh</t>
+  </si>
+  <si>
+    <t>pl_egasoline_st</t>
+  </si>
+  <si>
+    <t>dh</t>
+  </si>
+  <si>
+    <t>power_wholesale</t>
+  </si>
+  <si>
+    <t>h2_st</t>
+  </si>
+  <si>
+    <t>egasoline_st</t>
+  </si>
+  <si>
+    <t>initial_storages_invested</t>
+  </si>
+  <si>
+    <t>raw_fuels</t>
+  </si>
+  <si>
+    <t>other_fuels</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,24 +404,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -500,14 +443,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -517,43 +457,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -571,9 +475,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -587,48 +488,16 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Units"/>
-      <sheetName val="Connections"/>
-      <sheetName val="Storages"/>
-      <sheetName val="Drop_Down"/>
-      <sheetName val="Model_Data_Base (2)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AQ8" totalsRowShown="0">
-  <autoFilter ref="A1:AQ8" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AE8" totalsRowShown="0">
+  <autoFilter ref="A1:AE8" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="31">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Object_type"/>
     <tableColumn id="3" xr3:uid="{168877A6-E181-4446-9569-F36E8CEB8908}" name="Input1"/>
     <tableColumn id="4" xr3:uid="{C03E717E-B39B-450F-A07B-8C087AA65297}" name="Input2"/>
     <tableColumn id="5" xr3:uid="{1193D369-BC65-45A6-8749-4CD88E2C1722}" name="Output1"/>
     <tableColumn id="6" xr3:uid="{4AAC878F-692F-4277-A013-661DCC5DAE26}" name="Output2"/>
-    <tableColumn id="7" xr3:uid="{C21757F9-61E8-45D7-ADA3-80D8624CAEF0}" name="Cap_Input1_existing"/>
-    <tableColumn id="14" xr3:uid="{23796EE3-B67D-45AE-9553-CC3081EFDF57}" name="Cap_Input1_max"/>
-    <tableColumn id="15" xr3:uid="{DF0C0799-CA68-4E9B-A1FB-41F4996C01A9}" name="Cap_Input2_existing"/>
-    <tableColumn id="16" xr3:uid="{8A84DF9A-0F8E-4DA8-A009-F41EF2B05A60}" name="Cap_Input2_max"/>
-    <tableColumn id="17" xr3:uid="{6408F114-841E-472E-92F5-7B63FF1B66F4}" name="Cap_Output1_existing"/>
-    <tableColumn id="18" xr3:uid="{541C17F0-C020-47FE-9DA4-DB76D7416668}" name="Cap_Output_1_max"/>
-    <tableColumn id="19" xr3:uid="{D6FEE63D-DC89-4D1A-9708-5E7C70FD5793}" name="Cap_Output2_existing"/>
-    <tableColumn id="8" xr3:uid="{5F719CEE-A0F7-452C-B82C-E739C5FED49B}" name="Cap_Output2_max"/>
     <tableColumn id="26" xr3:uid="{D0F85E7B-D704-45A0-BE99-26E3A1F08634}" name="mean_efficiency"/>
     <tableColumn id="28" xr3:uid="{EBC4610B-47F0-44E3-8543-664851FC473C}" name="min_down_time"/>
     <tableColumn id="27" xr3:uid="{DC89C4F2-3857-45F2-B4A0-642F9C1613A6}" name="ramp_up_Output1"/>
@@ -642,37 +511,33 @@
     <tableColumn id="10" xr3:uid="{ACDE4024-BCA2-4145-B3BC-1A5A08F3EA7D}" name="Relation_In_In"/>
     <tableColumn id="11" xr3:uid="{8AEC88A1-B64A-43A2-AC89-3B27AB4ACAD7}" name="Relation_In_Out"/>
     <tableColumn id="25" xr3:uid="{95F69D80-80E7-42BD-B42F-59F3C3DC485B}" name="Relation_Out_Out"/>
-    <tableColumn id="12" xr3:uid="{F1A83AF0-CF23-4B00-9076-4E28DF8DAFD3}" name="Cost_invest" dataDxfId="6"/>
     <tableColumn id="24" xr3:uid="{4D171E04-3F62-4131-BD43-B8A8D03B8530}" name="units_on_cost"/>
     <tableColumn id="13" xr3:uid="{AD4231E3-CB94-4597-81A2-E13C044BBD2D}" name="fom_cost"/>
-    <tableColumn id="21" xr3:uid="{400CD12D-8ADA-4557-B7CA-1464809EAFF0}" name="vom_cost"/>
     <tableColumn id="22" xr3:uid="{3FA572AD-B473-45F7-A244-2DF38E57A2D3}" name="vom_cost_Input1"/>
     <tableColumn id="23" xr3:uid="{1F97C2CD-E522-4842-8E10-F9B9566A6723}" name="vom_cost_Input2"/>
     <tableColumn id="34" xr3:uid="{07BFD460-8B2F-4C66-8709-DAF17E5F2C62}" name="vom_cost_Output1"/>
     <tableColumn id="35" xr3:uid="{EF2A3F17-0D1A-480E-A13D-A5808719A3ED}" name="vom_cost_Output2"/>
-    <tableColumn id="36" xr3:uid="{CFFB3FD3-3581-4635-8E26-A397976C50BA}" name="minimum_op_point"/>
-    <tableColumn id="37" xr3:uid="{FF4178F5-A47B-4920-A52E-1B3F85F074B2}" name="unit_idle_heat_rate"/>
-    <tableColumn id="38" xr3:uid="{025B798B-AEA0-4557-A1C1-691EF0E57AB5}" name="resolution_output" dataDxfId="3"/>
-    <tableColumn id="39" xr3:uid="{35A52A69-E8FB-4298-8F4F-F2BB77F81158}" name="demand" dataDxfId="2"/>
-    <tableColumn id="40" xr3:uid="{13D3F1BD-DB2E-4B88-B660-2F6A81616F69}" name="unit_investment_variable_type"/>
-    <tableColumn id="41" xr3:uid="{8CF0CBE3-C92A-4542-8737-317CCD5CF213}" name="unit_investment_tech_lifetime"/>
-    <tableColumn id="42" xr3:uid="{363D0C55-B2E1-44C7-87B7-7505E7326FF0}" name="number_of_units" dataDxfId="1"/>
-    <tableColumn id="43" xr3:uid="{D9CDEEFF-E080-4B8B-8CB3-8D91FD4E3834}" name="Error messages:" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{46D920DE-C7E1-4897-930A-5C8B10367A4F}" name="minimum_op_point_Input1"/>
+    <tableColumn id="8" xr3:uid="{3D1E8A22-A849-4CDE-BBFA-E4A4C8F670B6}" name="minimum_op_point_Input2"/>
+    <tableColumn id="12" xr3:uid="{2B7B5E32-3E86-4A68-A045-AA51A4A24280}" name="minimum_op_point_Output1"/>
+    <tableColumn id="14" xr3:uid="{85E2E211-9879-417E-9645-71CD4680A1E8}" name="minimum_op_point_Output2"/>
+    <tableColumn id="15" xr3:uid="{752A45A3-76EA-4B92-8487-BB9B0C0F14F1}" name="resolution_output" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{0AB66AD0-7EF6-4EFA-A56D-DD0B84D8E912}" name="demand" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{856854C3-DC05-4AB8-91B8-0E52D9C11DBC}" name="Table13" displayName="Table13" ref="A1:AB5" totalsRowShown="0">
-  <autoFilter ref="A1:AB5" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{856854C3-DC05-4AB8-91B8-0E52D9C11DBC}" name="Table13" displayName="Table13" ref="A1:AA5" totalsRowShown="0">
+  <autoFilter ref="A1:AA5" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{26B0CA71-1EA9-44CF-8E6D-31054ECA99A6}" name="Connection"/>
     <tableColumn id="2" xr3:uid="{587ADBB8-7B68-42BE-A14F-535C6116E5EA}" name="Object_type"/>
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input1"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Input2"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output1"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Output2" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Output2" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Connection_type"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_existing"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input1_max"/>
@@ -687,7 +552,6 @@
     <tableColumn id="10" xr3:uid="{AE158189-8F74-4D1A-BE7F-20B56DC1FCA0}" name="Relation_In_Out"/>
     <tableColumn id="23" xr3:uid="{C3B5D3DD-6B9E-4750-8098-2BDCA6D4F76B}" name="Relation_Out_Out"/>
     <tableColumn id="11" xr3:uid="{ADDA3F91-13EA-44FD-BDAD-129E45FF1B77}" name="Relation_Out_In"/>
-    <tableColumn id="12" xr3:uid="{19693C8E-93B1-45BA-838A-11FFE3971C45}" name="Cost_invest"/>
     <tableColumn id="13" xr3:uid="{9A50D747-7636-48C7-AEA4-AC76517E91C7}" name="fom_cost"/>
     <tableColumn id="21" xr3:uid="{EC2CC790-C17D-4744-A981-3984808E5B33}" name="vom_cost_Input1"/>
     <tableColumn id="24" xr3:uid="{41B338E4-2058-41E9-8000-97D77450FBC3}" name="vom_cost_Input2"/>
@@ -701,10 +565,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:N5" totalsRowShown="0">
-  <autoFilter ref="A1:N5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:L5" totalsRowShown="0">
+  <autoFilter ref="A1:L5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="Object_type"/>
     <tableColumn id="6" xr3:uid="{FA5F8582-61FC-4A96-9E8D-E08E92F1962D}" name="value_before"/>
     <tableColumn id="5" xr3:uid="{58DBFD58-A0D2-4B31-B639-19B1628ABAC8}" name="value_start"/>
@@ -715,9 +579,7 @@
     <tableColumn id="12" xr3:uid="{DC155748-1945-4E24-B8A1-527B52E12445}" name="Cost_invest"/>
     <tableColumn id="13" xr3:uid="{620A5657-4B04-4066-87F7-215E607C4C88}" name="fom_cost"/>
     <tableColumn id="8" xr3:uid="{D3E26ECE-7BB7-42B8-829D-538BD4CDBDB6}" name="vom_cost"/>
-    <tableColumn id="9" xr3:uid="{0A1D8BBC-00AA-4BE2-AE05-790AC3DC8C47}" name="storage_investment_tech_lifetime"/>
-    <tableColumn id="10" xr3:uid="{2C02AE75-18E1-43C0-BD7D-2A33CD6D2344}" name="number_of_storages"/>
-    <tableColumn id="14" xr3:uid="{B6B58E65-7932-4722-B6A3-B26FE39DEC3E}" name="storage_investment_cost"/>
+    <tableColumn id="10" xr3:uid="{2C02AE75-18E1-43C0-BD7D-2A33CD6D2344}" name="initial_storages_invested"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1030,40 +892,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AQ8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
-    <col min="4" max="5" width="9.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.08984375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" hidden="1" customWidth="1"/>
-    <col min="14" max="22" width="10.54296875" customWidth="1"/>
-    <col min="23" max="23" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.7265625" customWidth="1"/>
-    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" customWidth="1"/>
-    <col min="30" max="30" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1078,406 +939,286 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="O1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="P1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="R1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="U1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="V1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="W1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="X1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="Y1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Z1" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="AA1" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="AB1" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="AC1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="AD1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2:R8" si="0">1/0.795</f>
+        <v>1.2578616352201257</v>
+      </c>
+      <c r="U2">
+        <v>1.29</v>
+      </c>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2">
-        <v>304</v>
-      </c>
-      <c r="L2">
-        <v>304</v>
-      </c>
-      <c r="Z2">
-        <f t="shared" ref="Z2:Z6" si="0">1/0.795</f>
-        <v>1.2578616352201257</v>
-      </c>
-      <c r="AB2" t="e">
-        <f>[1]!Table1[[#This Row],[Cap_Output1_existing]]*0.56</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AD2">
-        <v>1.29</v>
-      </c>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="4"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G3">
-        <v>52</v>
-      </c>
-      <c r="H3">
-        <v>52</v>
-      </c>
-      <c r="O3">
         <v>0.75</v>
       </c>
-      <c r="Y3">
+      <c r="Q3">
         <v>5.8500000000000002E-3</v>
       </c>
-      <c r="Z3">
+      <c r="R3">
         <f t="shared" si="0"/>
         <v>1.2578616352201257</v>
       </c>
-      <c r="AA3">
+      <c r="S3">
         <v>1.76</v>
       </c>
-      <c r="AD3">
+      <c r="U3">
         <v>4.34</v>
       </c>
-      <c r="AG3">
+      <c r="W3">
         <v>1.4865951742627345E-3</v>
       </c>
-      <c r="AJ3">
+      <c r="Z3">
         <v>0.02</v>
       </c>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="4"/>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4">
-        <v>52</v>
-      </c>
-      <c r="K4">
-        <v>52</v>
-      </c>
-      <c r="Y4">
-        <v>17.277901743828668</v>
-      </c>
-      <c r="Z4">
+        <v>86</v>
+      </c>
+      <c r="Q4">
+        <v>3.6010731197896975E-3</v>
+      </c>
+      <c r="R4">
+        <v>3.601073119789697E-3</v>
+      </c>
+      <c r="V4">
+        <v>26.81</v>
+      </c>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R5">
         <f t="shared" si="0"/>
         <v>1.2578616352201257</v>
       </c>
-      <c r="AK4">
-        <v>0.1</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM4" s="5">
-        <v>20.192799999999998</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="4"/>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6">
+        <v>7.2437800000000002E-4</v>
+      </c>
+      <c r="R6">
+        <v>0.99</v>
+      </c>
+      <c r="U6">
+        <v>0.11929223744292237</v>
+      </c>
+      <c r="W6">
+        <v>1.4865951742627345E-3</v>
+      </c>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>79</v>
       </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>75</v>
       </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="Y5">
-        <v>7.2437800000000002E-4</v>
-      </c>
-      <c r="Z5">
-        <v>0.99</v>
-      </c>
-      <c r="AD5">
-        <v>0.11929223744292237</v>
-      </c>
-      <c r="AG5">
-        <v>1.4865951742627345E-3</v>
-      </c>
-      <c r="AK5">
-        <v>0.1</v>
-      </c>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO5" t="s">
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
         <v>81</v>
       </c>
-      <c r="AP5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="4"/>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z6">
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8">
+        <v>17.277901743828668</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="0"/>
         <v>1.2578616352201257</v>
       </c>
-      <c r="AB6" t="e">
-        <f>[1]!Table1[[#This Row],[Cap_Output1_existing]]*0.56</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7">
-        <v>100</v>
-      </c>
-      <c r="L7">
-        <v>100</v>
-      </c>
-      <c r="Y7">
-        <v>3.6010731197896975E-3</v>
-      </c>
-      <c r="Z7">
-        <v>3.601073119789697E-3</v>
-      </c>
-      <c r="AF7">
-        <v>26.81</v>
-      </c>
-      <c r="AK7">
-        <v>0.1</v>
-      </c>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="4"/>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" t="s">
-        <v>110</v>
+      <c r="AD8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>20.192799999999998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL5 AL7" xr:uid="{BF130281-5586-4A5C-8D6C-8E80EEF73792}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD6 AD8" xr:uid="{A4271B4C-6C14-4C97-BA49-1AE5EE50903D}">
       <formula1>"h, D, W, M, Q, Y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1502,41 +1243,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
-    <col min="4" max="5" width="9.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" customWidth="1"/>
-    <col min="10" max="10" width="1.7265625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.36328125" customWidth="1"/>
-    <col min="12" max="12" width="19" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="15.36328125" customWidth="1"/>
-    <col min="14" max="14" width="19" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" customWidth="1"/>
+    <col min="14" max="14" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.81640625" customWidth="1"/>
-    <col min="20" max="20" width="12.7265625" customWidth="1"/>
-    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1551,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -1581,25 +1323,25 @@
         <v>5</v>
       </c>
       <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
       <c r="T1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="V1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" t="s">
         <v>30</v>
-      </c>
-      <c r="W1" t="s">
-        <v>34</v>
       </c>
       <c r="X1" t="s">
         <v>31</v>
@@ -1608,36 +1350,33 @@
         <v>32</v>
       </c>
       <c r="Z1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="AA1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>1000</v>
@@ -1669,34 +1408,34 @@
       <c r="T2">
         <v>1</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="Z2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>94</v>
       </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>95</v>
-      </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -1722,37 +1461,37 @@
       <c r="T3">
         <v>0.88</v>
       </c>
-      <c r="V3">
+      <c r="U3">
         <v>7.2835616438356163E-2</v>
       </c>
-      <c r="AA3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB3">
+      <c r="Z3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
         <v>100</v>
       </c>
-      <c r="B4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" t="s">
-        <v>109</v>
-      </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <v>1000</v>
@@ -1772,28 +1511,28 @@
       <c r="N4">
         <v>1000</v>
       </c>
-      <c r="AA4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB4">
+      <c r="Z4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>1000</v>
@@ -1810,10 +1549,10 @@
       <c r="T5">
         <v>1</v>
       </c>
-      <c r="AA5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB5">
+      <c r="Z5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA5">
         <v>1</v>
       </c>
     </row>
@@ -1828,76 +1567,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.81640625" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1912,24 +1644,18 @@
         <v>4.147E-2</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2">
+        <v>67</v>
+      </c>
+      <c r="L2">
         <v>0</v>
       </c>
-      <c r="N2">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1938,12 +1664,9 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3">
+        <v>67</v>
+      </c>
+      <c r="L3">
         <v>0</v>
       </c>
     </row>
@@ -1965,100 +1688,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F682EA3-CCEB-45E2-AC25-979810840C6C}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/egasoline/Model_Data_Base_egasoline.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/egasoline/Model_Data_Base_egasoline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/egasoline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2592EB2B-EF80-4362-A692-3AD1CC5F48ED}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB6F8CCB-99A6-4F6C-B671-2FF47C5DB0E8}"/>
   <bookViews>
-    <workbookView xWindow="-20940" yWindow="-20055" windowWidth="22710" windowHeight="17580" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-5745" yWindow="-18465" windowWidth="15240" windowHeight="12210" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="106">
   <si>
     <t>Unit</t>
   </si>
@@ -385,6 +385,12 @@
   </si>
   <si>
     <t>other_fuels</t>
+  </si>
+  <si>
+    <t>start_up_cost</t>
+  </si>
+  <si>
+    <t>shut_down_cost</t>
   </si>
 </sst>
 </file>
@@ -459,12 +465,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -474,6 +474,12 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -488,10 +494,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AE8" totalsRowShown="0">
-  <autoFilter ref="A1:AE8" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AG8" totalsRowShown="0">
+  <autoFilter ref="A1:AG8" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Object_type"/>
     <tableColumn id="3" xr3:uid="{168877A6-E181-4446-9569-F36E8CEB8908}" name="Input1"/>
@@ -508,6 +518,8 @@
     <tableColumn id="33" xr3:uid="{D8C88D78-E68F-45EF-8A97-7C1F84821946}" name="start_up_Output2"/>
     <tableColumn id="9" xr3:uid="{50F936EF-D32C-4938-8FCA-291A6A3E82E6}" name="shut_down_Output1"/>
     <tableColumn id="20" xr3:uid="{84C680FD-12EA-4AE2-A238-57453A3D8C12}" name="shut_down_Output2"/>
+    <tableColumn id="18" xr3:uid="{B5D3C563-C4ED-480F-ACFC-F4264D03AF31}" name="start_up_cost"/>
+    <tableColumn id="17" xr3:uid="{95CFDBCB-0DEB-45F8-9B20-0EC6F791BEC7}" name="shut_down_cost"/>
     <tableColumn id="10" xr3:uid="{ACDE4024-BCA2-4145-B3BC-1A5A08F3EA7D}" name="Relation_In_In"/>
     <tableColumn id="11" xr3:uid="{8AEC88A1-B64A-43A2-AC89-3B27AB4ACAD7}" name="Relation_In_Out"/>
     <tableColumn id="25" xr3:uid="{95F69D80-80E7-42BD-B42F-59F3C3DC485B}" name="Relation_Out_Out"/>
@@ -521,8 +533,8 @@
     <tableColumn id="8" xr3:uid="{3D1E8A22-A849-4CDE-BBFA-E4A4C8F670B6}" name="minimum_op_point_Input2"/>
     <tableColumn id="12" xr3:uid="{2B7B5E32-3E86-4A68-A045-AA51A4A24280}" name="minimum_op_point_Output1"/>
     <tableColumn id="14" xr3:uid="{85E2E211-9879-417E-9645-71CD4680A1E8}" name="minimum_op_point_Output2"/>
-    <tableColumn id="15" xr3:uid="{752A45A3-76EA-4B92-8487-BB9B0C0F14F1}" name="resolution_output" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{0AB66AD0-7EF6-4EFA-A56D-DD0B84D8E912}" name="demand" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{752A45A3-76EA-4B92-8487-BB9B0C0F14F1}" name="resolution_output" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{0AB66AD0-7EF6-4EFA-A56D-DD0B84D8E912}" name="demand" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -537,7 +549,7 @@
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input1"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Input2"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output1"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Output2" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Output2" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Connection_type"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_existing"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input1_max"/>
@@ -568,7 +580,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:L5" totalsRowShown="0">
   <autoFilter ref="A1:L5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="Object_type"/>
     <tableColumn id="6" xr3:uid="{FA5F8582-61FC-4A96-9E8D-E08E92F1962D}" name="value_before"/>
     <tableColumn id="5" xr3:uid="{58DBFD58-A0D2-4B31-B639-19B1628ABAC8}" name="value_start"/>
@@ -892,7 +904,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -910,16 +922,18 @@
     <col min="11" max="12" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -969,52 +983,58 @@
         <v>42</v>
       </c>
       <c r="Q1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>47</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>33</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>89</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>90</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>91</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>92</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1024,17 +1044,17 @@
       <c r="E2" t="s">
         <v>80</v>
       </c>
-      <c r="R2">
-        <f t="shared" ref="R2:R8" si="0">1/0.795</f>
+      <c r="T2">
+        <f t="shared" ref="T2:T8" si="0">1/0.795</f>
         <v>1.2578616352201257</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>1.29</v>
       </c>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1056,29 +1076,29 @@
       <c r="G3">
         <v>0.75</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>5.8500000000000002E-3</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <f t="shared" si="0"/>
         <v>1.2578616352201257</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>1.76</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>4.34</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>1.4865951742627345E-3</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>0.02</v>
       </c>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1094,19 +1114,19 @@
       <c r="E4" t="s">
         <v>86</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>3.6010731197896975E-3</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>3.601073119789697E-3</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>26.81</v>
       </c>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -1122,14 +1142,14 @@
       <c r="E5" t="s">
         <v>87</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <f t="shared" si="0"/>
         <v>1.2578616352201257</v>
       </c>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1145,22 +1165,22 @@
       <c r="E6" t="s">
         <v>81</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>7.2437800000000002E-4</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>0.99</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>0.11929223744292237</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>1.4865951742627345E-3</v>
       </c>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -1179,10 +1199,10 @@
       <c r="F7" t="s">
         <v>83</v>
       </c>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -1201,24 +1221,24 @@
       <c r="F8" t="s">
         <v>103</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>17.277901743828668</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <f t="shared" si="0"/>
         <v>1.2578616352201257</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AG8" s="2">
         <v>20.192799999999998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD6 AD8" xr:uid="{A4271B4C-6C14-4C97-BA49-1AE5EE50903D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF6 AF8" xr:uid="{A4271B4C-6C14-4C97-BA49-1AE5EE50903D}">
       <formula1>"h, D, W, M, Q, Y"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Spine_Projects/01_input_data/01_input_raw/egasoline/Model_Data_Base_egasoline.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/egasoline/Model_Data_Base_egasoline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/egasoline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB6F8CCB-99A6-4F6C-B671-2FF47C5DB0E8}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3D9C8A1-F9ED-432A-8F94-04FD47AC0403}"/>
   <bookViews>
-    <workbookView xWindow="-5745" yWindow="-18465" windowWidth="15240" windowHeight="12210" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="1215" yWindow="-17610" windowWidth="16995" windowHeight="13800" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="105">
   <si>
     <t>Unit</t>
   </si>
@@ -234,12 +234,6 @@
     <t>PEM_Electrolyzer</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Steam_Plant</t>
-  </si>
-  <si>
     <t>Electric_Steam_Boiler</t>
   </si>
   <si>
@@ -391,6 +385,9 @@
   </si>
   <si>
     <t>shut_down_cost</t>
+  </si>
+  <si>
+    <t>steam_plant</t>
   </si>
 </sst>
 </file>
@@ -412,7 +409,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,6 +420,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -449,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -459,11 +462,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -474,12 +484,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -492,10 +496,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,8 +533,8 @@
     <tableColumn id="8" xr3:uid="{3D1E8A22-A849-4CDE-BBFA-E4A4C8F670B6}" name="minimum_op_point_Input2"/>
     <tableColumn id="12" xr3:uid="{2B7B5E32-3E86-4A68-A045-AA51A4A24280}" name="minimum_op_point_Output1"/>
     <tableColumn id="14" xr3:uid="{85E2E211-9879-417E-9645-71CD4680A1E8}" name="minimum_op_point_Output2"/>
-    <tableColumn id="15" xr3:uid="{752A45A3-76EA-4B92-8487-BB9B0C0F14F1}" name="resolution_output" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{0AB66AD0-7EF6-4EFA-A56D-DD0B84D8E912}" name="demand" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{752A45A3-76EA-4B92-8487-BB9B0C0F14F1}" name="resolution_output" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{0AB66AD0-7EF6-4EFA-A56D-DD0B84D8E912}" name="demand" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -549,7 +549,7 @@
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input1"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Input2"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output1"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Output2" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Output2" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Connection_type"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_existing"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input1_max"/>
@@ -580,7 +580,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:L5" totalsRowShown="0">
   <autoFilter ref="A1:L5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="Object_type"/>
     <tableColumn id="6" xr3:uid="{FA5F8582-61FC-4A96-9E8D-E08E92F1962D}" name="value_before"/>
     <tableColumn id="5" xr3:uid="{58DBFD58-A0D2-4B31-B639-19B1628ABAC8}" name="value_start"/>
@@ -983,10 +983,10 @@
         <v>42</v>
       </c>
       <c r="Q1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S1" t="s">
         <v>17</v>
@@ -1016,16 +1016,16 @@
         <v>32</v>
       </c>
       <c r="AB1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD1" t="s">
         <v>89</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>90</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>92</v>
       </c>
       <c r="AF1" t="s">
         <v>48</v>
@@ -1036,42 +1036,35 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T2">
-        <f t="shared" ref="T2:T8" si="0">1/0.795</f>
-        <v>1.2578616352201257</v>
-      </c>
-      <c r="W2">
-        <v>1.29</v>
+        <v>78</v>
       </c>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
       </c>
       <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>82</v>
       </c>
-      <c r="E3" t="s">
-        <v>84</v>
-      </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G3">
         <v>0.75</v>
@@ -1079,10 +1072,6 @@
       <c r="S3">
         <v>5.8500000000000002E-3</v>
       </c>
-      <c r="T3">
-        <f t="shared" si="0"/>
-        <v>1.2578616352201257</v>
-      </c>
       <c r="U3">
         <v>1.76</v>
       </c>
@@ -1090,7 +1079,7 @@
         <v>4.34</v>
       </c>
       <c r="Y3">
-        <v>1.4865951742627345E-3</v>
+        <v>1.4865950000000001E-3</v>
       </c>
       <c r="AB3">
         <v>0.02</v>
@@ -1100,70 +1089,66 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S4">
-        <v>3.6010731197896975E-3</v>
+        <v>3.529412E-3</v>
       </c>
       <c r="T4">
-        <v>3.601073119789697E-3</v>
-      </c>
-      <c r="X4">
+        <v>3.529412E-3</v>
+      </c>
+      <c r="Y4">
         <v>26.81</v>
       </c>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>77</v>
+      <c r="A5" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
         <v>84</v>
       </c>
-      <c r="D5" t="s">
-        <v>86</v>
-      </c>
       <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>1.2578616352201257</v>
+        <v>85</v>
       </c>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S6">
         <v>7.2437800000000002E-4</v>
@@ -1172,73 +1157,62 @@
         <v>0.99</v>
       </c>
       <c r="W6">
-        <v>0.11929223744292237</v>
+        <v>0.11929223999999999</v>
       </c>
       <c r="Y6">
-        <v>1.4865951742627345E-3</v>
+        <v>1.4865950000000001E-3</v>
       </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>79</v>
+      <c r="A7" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>75</v>
+      <c r="A8" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
-      </c>
-      <c r="S8">
-        <v>17.277901743828668</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="0"/>
-        <v>1.2578616352201257</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG8" s="2">
-        <v>20.192799999999998</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF6 AF8" xr:uid="{A4271B4C-6C14-4C97-BA49-1AE5EE50903D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF6 AF8" xr:uid="{E47908A7-DB1C-4220-925F-58ECE0562926}">
       <formula1>"h, D, W, M, Q, Y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1378,25 +1352,25 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>1000</v>
@@ -1429,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="Z2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -1437,25 +1411,25 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -1485,74 +1459,50 @@
         <v>7.2835616438356163E-2</v>
       </c>
       <c r="Z3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AA3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>96</v>
+      <c r="A4" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4">
-        <v>1000</v>
-      </c>
-      <c r="J4">
-        <v>1000</v>
-      </c>
-      <c r="K4">
-        <v>1000</v>
-      </c>
-      <c r="L4">
-        <v>1000</v>
-      </c>
-      <c r="M4">
-        <v>1000</v>
-      </c>
-      <c r="N4">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
         <v>95</v>
       </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>97</v>
-      </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H5">
         <v>1000</v>
@@ -1570,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="Z5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -1641,15 +1591,15 @@
         <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1664,18 +1614,18 @@
         <v>4.147E-2</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>100</v>
+      <c r="A3" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1684,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1729,52 +1679,52 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
@@ -1784,12 +1734,12 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
@@ -1799,12 +1749,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/egasoline/Model_Data_Base_egasoline.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/egasoline/Model_Data_Base_egasoline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/egasoline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3D9C8A1-F9ED-432A-8F94-04FD47AC0403}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72649E00-BF5F-4ED5-8C8C-0C178F3CC60A}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="-17610" windowWidth="16995" windowHeight="13800" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="104">
   <si>
     <t>Unit</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>value_before</t>
-  </si>
-  <si>
-    <t>value_start</t>
   </si>
   <si>
     <t>Relation_Out_In</t>
@@ -469,12 +466,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -484,6 +475,12 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,6 +493,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,8 +534,8 @@
     <tableColumn id="8" xr3:uid="{3D1E8A22-A849-4CDE-BBFA-E4A4C8F670B6}" name="minimum_op_point_Input2"/>
     <tableColumn id="12" xr3:uid="{2B7B5E32-3E86-4A68-A045-AA51A4A24280}" name="minimum_op_point_Output1"/>
     <tableColumn id="14" xr3:uid="{85E2E211-9879-417E-9645-71CD4680A1E8}" name="minimum_op_point_Output2"/>
-    <tableColumn id="15" xr3:uid="{752A45A3-76EA-4B92-8487-BB9B0C0F14F1}" name="resolution_output" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{0AB66AD0-7EF6-4EFA-A56D-DD0B84D8E912}" name="demand" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{752A45A3-76EA-4B92-8487-BB9B0C0F14F1}" name="resolution_output" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{0AB66AD0-7EF6-4EFA-A56D-DD0B84D8E912}" name="demand" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -549,7 +550,7 @@
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input1"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Input2"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output1"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Output2" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Output2" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Connection_type"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_existing"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input1_max"/>
@@ -577,13 +578,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:L5" totalsRowShown="0">
-  <autoFilter ref="A1:L5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:K5" totalsRowShown="0">
+  <autoFilter ref="A1:K5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="Object_type"/>
     <tableColumn id="6" xr3:uid="{FA5F8582-61FC-4A96-9E8D-E08E92F1962D}" name="value_before"/>
-    <tableColumn id="5" xr3:uid="{58DBFD58-A0D2-4B31-B639-19B1628ABAC8}" name="value_start"/>
     <tableColumn id="2" xr3:uid="{1FB70133-79C8-41A8-BCD5-AC8AA5856E5B}" name="has_state"/>
     <tableColumn id="3" xr3:uid="{11AD2EA9-CE36-4CCE-8F89-387EFE0D8EED}" name="node_state_cap"/>
     <tableColumn id="7" xr3:uid="{FDFFF561-E931-46C6-8D90-30C5BF9CB9E9}" name="frac_state_loss"/>
@@ -906,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -953,40 +953,40 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>41</v>
       </c>
-      <c r="P1" t="s">
-        <v>42</v>
-      </c>
       <c r="Q1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" t="s">
         <v>102</v>
-      </c>
-      <c r="R1" t="s">
-        <v>103</v>
       </c>
       <c r="S1" t="s">
         <v>17</v>
@@ -998,73 +998,73 @@
         <v>18</v>
       </c>
       <c r="V1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF1" t="s">
         <v>47</v>
       </c>
-      <c r="W1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>48</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
         <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" t="s">
-        <v>81</v>
       </c>
       <c r="G3">
         <v>0.75</v>
@@ -1089,19 +1089,19 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
         <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
       </c>
       <c r="S4">
         <v>3.529412E-3</v>
@@ -1117,38 +1117,38 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
         <v>84</v>
-      </c>
-      <c r="E5" t="s">
-        <v>85</v>
       </c>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
         <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
       </c>
       <c r="S6">
         <v>7.2437800000000002E-4</v>
@@ -1167,44 +1167,44 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
         <v>73</v>
       </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
       <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
         <v>100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" t="s">
-        <v>101</v>
       </c>
       <c r="AF8" s="1"/>
       <c r="AG8" s="2"/>
@@ -1272,7 +1272,7 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1326,51 +1326,51 @@
         <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" t="s">
-        <v>32</v>
-      </c>
       <c r="Z1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" t="s">
         <v>44</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
       </c>
       <c r="H2">
         <v>1000</v>
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="Z2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -1411,25 +1411,25 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -1459,7 +1459,7 @@
         <v>7.2835616438356163E-2</v>
       </c>
       <c r="Z3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA3">
         <v>1</v>
@@ -1467,42 +1467,42 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>1000</v>
@@ -1520,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="Z5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -1537,113 +1537,109 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="D2" t="b">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>5478.6764505058327</v>
+      </c>
       <c r="F2">
-        <v>5478.6764505058327</v>
-      </c>
-      <c r="G2">
         <v>4.147E-2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
         <v>65</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="E3" t="b">
+      <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3">
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5 E2:E3" xr:uid="{5D5BF415-E056-4F96-A602-1B73CD7FB1B5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{5D5BF415-E056-4F96-A602-1B73CD7FB1B5}">
       <formula1>"true, false"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1669,92 +1665,92 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/egasoline/Model_Data_Base_egasoline.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/egasoline/Model_Data_Base_egasoline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/egasoline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72649E00-BF5F-4ED5-8C8C-0C178F3CC60A}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2D1892C-1DE9-4869-9711-39483E5E649A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="105">
   <si>
     <t>Unit</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>steam_plant</t>
+  </si>
+  <si>
+    <t>initial_units_on</t>
   </si>
 </sst>
 </file>
@@ -500,9 +503,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AG8" totalsRowShown="0">
-  <autoFilter ref="A1:AG8" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AH8" totalsRowShown="0">
+  <autoFilter ref="A1:AH8" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Object_type"/>
     <tableColumn id="3" xr3:uid="{168877A6-E181-4446-9569-F36E8CEB8908}" name="Input1"/>
@@ -536,6 +539,7 @@
     <tableColumn id="14" xr3:uid="{85E2E211-9879-417E-9645-71CD4680A1E8}" name="minimum_op_point_Output2"/>
     <tableColumn id="15" xr3:uid="{752A45A3-76EA-4B92-8487-BB9B0C0F14F1}" name="resolution_output" dataDxfId="3"/>
     <tableColumn id="16" xr3:uid="{0AB66AD0-7EF6-4EFA-A56D-DD0B84D8E912}" name="demand" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{55C0E981-EA65-4B2B-8C3A-B52FDBB88B17}" name="initial_units_on"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -904,9 +908,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -933,7 +939,7 @@
     <col min="26" max="27" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1033,8 +1039,11 @@
       <c r="AG1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -1047,7 +1056,7 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1087,7 +1096,7 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -1115,7 +1124,7 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -1134,7 +1143,7 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -1165,7 +1174,7 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -1186,8 +1195,11 @@
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>72</v>
       </c>
@@ -1207,7 +1219,9 @@
         <v>100</v>
       </c>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="2"/>
+      <c r="AG8" s="2">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1539,7 +1553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Spine_Projects/01_input_data/01_input_raw/egasoline/Model_Data_Base_egasoline.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/egasoline/Model_Data_Base_egasoline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/egasoline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2D1892C-1DE9-4869-9711-39483E5E649A}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40E3703C-F083-487E-8D6A-4C2C9C99D66F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="5385" yWindow="-15570" windowWidth="14400" windowHeight="8265" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="109">
   <si>
     <t>Unit</t>
   </si>
@@ -315,9 +315,6 @@
     <t>water</t>
   </si>
   <si>
-    <t>heat</t>
-  </si>
-  <si>
     <t>h2</t>
   </si>
   <si>
@@ -388,6 +385,21 @@
   </si>
   <si>
     <t>initial_units_on</t>
+  </si>
+  <si>
+    <t>heat_low</t>
+  </si>
+  <si>
+    <t>heat_high</t>
+  </si>
+  <si>
+    <t>heat_split</t>
+  </si>
+  <si>
+    <t>Auxilliary</t>
+  </si>
+  <si>
+    <t>internal_heat</t>
   </si>
 </sst>
 </file>
@@ -908,11 +920,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -939,7 +949,7 @@
     <col min="26" max="27" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -989,10 +999,10 @@
         <v>41</v>
       </c>
       <c r="Q1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" t="s">
         <v>101</v>
-      </c>
-      <c r="R1" t="s">
-        <v>102</v>
       </c>
       <c r="S1" t="s">
         <v>17</v>
@@ -1022,16 +1032,16 @@
         <v>31</v>
       </c>
       <c r="AB1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC1" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>87</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>88</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>89</v>
       </c>
       <c r="AF1" t="s">
         <v>47</v>
@@ -1040,10 +1050,10 @@
         <v>48</v>
       </c>
       <c r="AH1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -1056,7 +1066,7 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1070,10 +1080,10 @@
         <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <v>0.75</v>
@@ -1096,7 +1106,7 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -1107,10 +1117,10 @@
         <v>77</v>
       </c>
       <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
         <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
       </c>
       <c r="S4">
         <v>3.529412E-3</v>
@@ -1124,7 +1134,7 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -1132,20 +1142,20 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
         <v>83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>84</v>
       </c>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -1174,7 +1184,7 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -1182,16 +1192,16 @@
         <v>55</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
@@ -1199,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>72</v>
       </c>
@@ -1207,26 +1217,48 @@
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
         <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF8" s="1"/>
       <c r="AG8" s="2">
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="U9">
+        <v>0.4</v>
+      </c>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF6 AF8" xr:uid="{E47908A7-DB1C-4220-925F-58ECE0562926}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF6 AF8 AI9" xr:uid="{E47908A7-DB1C-4220-925F-58ECE0562926}">
       <formula1>"h, D, W, M, Q, Y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1241,7 +1273,7 @@
           <x14:formula1>
             <xm:f>DropDown!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B1 B9:B1048576</xm:sqref>
+          <xm:sqref>B1 B10:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1366,13 +1398,13 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
@@ -1381,7 +1413,7 @@
         <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
         <v>57</v>
@@ -1425,22 +1457,22 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
         <v>60</v>
@@ -1481,22 +1513,22 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
         <v>60</v>
@@ -1504,16 +1536,16 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
         <v>60</v>
@@ -1601,12 +1633,12 @@
         <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -1632,7 +1664,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
